--- a/Releases.xlsx
+++ b/Releases.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B66C0-4B79-4F79-91BC-DAC489FA6FD5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stage 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Release 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>1.0</t>
   </si>
@@ -80,18 +81,12 @@
     <t>Change Password</t>
   </si>
   <si>
-    <t>About Us</t>
-  </si>
-  <si>
     <t>Contact US</t>
   </si>
   <si>
     <t>Releases</t>
   </si>
   <si>
-    <t>Support</t>
-  </si>
-  <si>
     <t>Suggestions/Defects</t>
   </si>
   <si>
@@ -146,9 +141,6 @@
     <t>Plus: Defense</t>
   </si>
   <si>
-    <t>Create CFD</t>
-  </si>
-  <si>
     <t>CFD Status</t>
   </si>
   <si>
@@ -179,9 +171,6 @@
     <t>Display Ops</t>
   </si>
   <si>
-    <t>Create Ops</t>
-  </si>
-  <si>
     <t>Ops Plans Archive</t>
   </si>
   <si>
@@ -204,12 +193,33 @@
   </si>
   <si>
     <t>Troops Training Extended</t>
+  </si>
+  <si>
+    <t>Create Ops (modal)</t>
+  </si>
+  <si>
+    <t>Create CFD (modal)</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +293,20 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -308,17 +330,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -328,8 +339,78 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -337,7 +418,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -348,8 +429,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -359,20 +442,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -383,7 +453,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -396,47 +466,89 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -449,34 +561,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -497,15 +593,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -540,7 +685,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -548,6 +693,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -596,7 +744,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,9 +777,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,6 +829,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -839,23 +1021,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -864,486 +1050,702 @@
       <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="D1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="30"/>
+      <c r="O2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="30"/>
+      <c r="O3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="30"/>
+      <c r="O4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="21" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="30"/>
+      <c r="O5" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="22" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="C26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="28" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="6" t="s">
+      <c r="D38" s="29"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="28" t="s">
+      <c r="D39" s="29"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D40" s="29"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="4" t="s">
+      <c r="D41" s="29"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="4" t="s">
+      <c r="D42" s="29"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="25" t="s">
+      <c r="C43" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="8" t="s">
+      <c r="D43" s="29"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="30"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="28" t="s">
+      <c r="D44" s="29"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="30"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="11"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="11"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="11"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="11"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="11"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="11"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="11"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="11"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="11"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="11"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="11"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="11"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="11"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="11"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="5"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="B43:B45"/>
@@ -1351,18 +1753,13 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Releases.xlsx
+++ b/Releases.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B66C0-4B79-4F79-91BC-DAC489FA6FD5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3C1CA-BB5A-4020-8721-C753DF37608E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,8 +15,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FF68EE05-C9D9-4EC2-9220-22912F9637EC}</author>
+    <author>tc={3DACAAA6-BBB3-4B2A-AC80-42DBED081865}</author>
+    <author>tc={EEDE8CB4-6923-43B1-A48C-420F75D65C90}</author>
+    <author>tc={9DBD0D59-4A1B-4521-831E-8EC9D491FFA0}</author>
+    <author>tc={3D63B233-4180-47DB-A72A-B611A7ED6268}</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{FF68EE05-C9D9-4EC2-9220-22912F9637EC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Send Email</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{3DACAAA6-BBB3-4B2A-AC80-42DBED081865}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Send Email</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="2" shapeId="0" xr:uid="{EEDE8CB4-6923-43B1-A48C-420F75D65C90}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Send Email</t>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="3" shapeId="0" xr:uid="{9DBD0D59-4A1B-4521-831E-8EC9D491FFA0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Paginate</t>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="4" shapeId="0" xr:uid="{3D63B233-4180-47DB-A72A-B611A7ED6268}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Paginate</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>1.0</t>
   </si>
@@ -78,9 +132,6 @@
     <t>Contact Details</t>
   </si>
   <si>
-    <t>Change Password</t>
-  </si>
-  <si>
     <t>Contact US</t>
   </si>
   <si>
@@ -214,13 +265,22 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>Rankings</t>
+  </si>
+  <si>
+    <t>Ranking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +325,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -306,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -520,17 +586,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,23 +658,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,29 +701,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,6 +754,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1020,12 +1079,32 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F4" dT="2019-01-23T21:41:31.61" personId="{00000000-0000-0000-0000-000000000000}" id="{FF68EE05-C9D9-4EC2-9220-22912F9637EC}">
+    <text>Send Email</text>
+  </threadedComment>
+  <threadedComment ref="F5" dT="2019-01-23T21:41:31.61" personId="{00000000-0000-0000-0000-000000000000}" id="{3DACAAA6-BBB3-4B2A-AC80-42DBED081865}">
+    <text>Send Email</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2019-01-23T21:41:31.61" personId="{00000000-0000-0000-0000-000000000000}" id="{EEDE8CB4-6923-43B1-A48C-420F75D65C90}">
+    <text>Send Email</text>
+  </threadedComment>
+  <threadedComment ref="F8" dT="2019-01-23T21:40:33.46" personId="{00000000-0000-0000-0000-000000000000}" id="{9DBD0D59-4A1B-4521-831E-8EC9D491FFA0}">
+    <text>Paginate</text>
+  </threadedComment>
+  <threadedComment ref="F9" dT="2019-01-23T21:40:33.46" personId="{00000000-0000-0000-0000-000000000000}" id="{3D63B233-4180-47DB-A72A-B611A7ED6268}">
+    <text>Paginate</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,16 +1130,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="O1" s="7"/>
     </row>
@@ -1068,533 +1147,543 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="30"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="23"/>
       <c r="O2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="23"/>
       <c r="O3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="23"/>
       <c r="O4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="23"/>
       <c r="O5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="30"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="30"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="30"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="30"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="30"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="30"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="30"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="34"/>
+      <c r="B15" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="29"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="22"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="29"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="22"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="30"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="30"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="29"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="22"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="30"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="29"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="22"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="30"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="30"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="30"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="30"/>
+      <c r="B26" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="30"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="30"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="30"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="30"/>
+      <c r="B32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="30"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="30"/>
+      <c r="B34" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="29"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="26"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="30"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="29"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="26"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="30"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="29"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="26"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="30"/>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="29"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="26"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="30"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="30"/>
+      <c r="B39" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="30"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="30"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="29"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="26"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="29"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="27"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="30"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
@@ -1740,21 +1829,33 @@
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B26:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
